--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/L1cam-Cntn1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/L1cam-Cntn1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H2">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I2">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J2">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -567,27 +567,27 @@
         <v>0.34355</v>
       </c>
       <c r="O2">
-        <v>0.5923587361059505</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.6855055141740312</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.5147912378166667</v>
+        <v>1.936194607008334</v>
       </c>
       <c r="R2">
-        <v>3.0887474269</v>
+        <v>11.61716764205</v>
       </c>
       <c r="S2">
-        <v>0.0754728045918502</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="T2">
-        <v>0.06655626882140211</v>
+        <v>0.160920589855456</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.495339</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="H3">
-        <v>8.990678000000001</v>
+        <v>1.389289</v>
       </c>
       <c r="I3">
-        <v>0.1274106381683396</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J3">
-        <v>0.09709078547908703</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0788065</v>
+        <v>0.1145166666666667</v>
       </c>
       <c r="N3">
-        <v>0.157613</v>
+        <v>0.34355</v>
       </c>
       <c r="O3">
-        <v>0.4076412638940496</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.3144944858259688</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.3542619329035001</v>
+        <v>0.05303224843888889</v>
       </c>
       <c r="R3">
-        <v>1.417047731614</v>
+        <v>0.47729023595</v>
       </c>
       <c r="S3">
-        <v>0.05193783357648938</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="T3">
-        <v>0.03053451665768491</v>
+        <v>0.006611407243820265</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4630963333333333</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H4">
-        <v>1.389289</v>
+        <v>22.39811</v>
       </c>
       <c r="I4">
-        <v>0.01312546158663854</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J4">
-        <v>0.01500300202804008</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -691,27 +691,27 @@
         <v>0.34355</v>
       </c>
       <c r="O4">
-        <v>0.5923587361059505</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.6855055141740312</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.05303224843888889</v>
+        <v>0.8549856322777779</v>
       </c>
       <c r="R4">
-        <v>0.47729023595</v>
+        <v>7.694870690500001</v>
       </c>
       <c r="S4">
-        <v>0.007774981836268407</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="T4">
-        <v>0.01028464061938565</v>
+        <v>0.106589073045193</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4630963333333333</v>
+        <v>15.2071285</v>
       </c>
       <c r="H5">
-        <v>1.389289</v>
+        <v>30.414257</v>
       </c>
       <c r="I5">
-        <v>0.01312546158663854</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J5">
-        <v>0.01500300202804008</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.0788065</v>
+        <v>0.1145166666666667</v>
       </c>
       <c r="N5">
-        <v>0.157613</v>
+        <v>0.34355</v>
       </c>
       <c r="O5">
-        <v>0.4076412638940496</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.3144944858259688</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.03649500119283333</v>
+        <v>1.741469665391667</v>
       </c>
       <c r="R5">
-        <v>0.218970007157</v>
+        <v>10.44881799235</v>
       </c>
       <c r="S5">
-        <v>0.005350479750370131</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="T5">
-        <v>0.004718361408654432</v>
+        <v>0.1447366523777351</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.798299666666668</v>
+        <v>35.389713</v>
       </c>
       <c r="H6">
-        <v>20.394899</v>
+        <v>106.169139</v>
       </c>
       <c r="I6">
-        <v>0.1926830655017586</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J6">
-        <v>0.2202455436260365</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -815,27 +815,27 @@
         <v>0.34355</v>
       </c>
       <c r="O6">
-        <v>0.5923587361059505</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.6855055141740312</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.7785186168277779</v>
+        <v>4.05271196705</v>
       </c>
       <c r="R6">
-        <v>7.006667551450001</v>
+        <v>36.47440770345001</v>
       </c>
       <c r="S6">
-        <v>0.1141374971496418</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="T6">
-        <v>0.1509795346279052</v>
+        <v>0.5052421883817986</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,418 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.798299666666668</v>
+        <v>5.316425333333333</v>
       </c>
       <c r="H7">
-        <v>20.394899</v>
+        <v>15.949276</v>
       </c>
       <c r="I7">
-        <v>0.1926830655017586</v>
+        <v>0.06583813734818843</v>
       </c>
       <c r="J7">
-        <v>0.2202455436260365</v>
+        <v>0.07590008909599709</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.0788065</v>
+        <v>0.1145166666666667</v>
       </c>
       <c r="N7">
-        <v>0.157613</v>
+        <v>0.34355</v>
       </c>
       <c r="O7">
-        <v>0.4076412638940496</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0.3144944858259688</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.5357502026811668</v>
+        <v>0.6088193077555556</v>
       </c>
       <c r="R7">
-        <v>3.214501216087001</v>
+        <v>5.4793737698</v>
       </c>
       <c r="S7">
-        <v>0.07854556835211685</v>
+        <v>0.06583813734818843</v>
       </c>
       <c r="T7">
-        <v>0.06926600899813133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>8.750795</v>
-      </c>
-      <c r="H8">
-        <v>17.50159</v>
-      </c>
-      <c r="I8">
-        <v>0.2480223127622444</v>
-      </c>
-      <c r="J8">
-        <v>0.1890005537105138</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.1145166666666667</v>
-      </c>
-      <c r="N8">
-        <v>0.34355</v>
-      </c>
-      <c r="O8">
-        <v>0.5923587361059505</v>
-      </c>
-      <c r="P8">
-        <v>0.6855055141740312</v>
-      </c>
-      <c r="Q8">
-        <v>1.002111874083333</v>
-      </c>
-      <c r="R8">
-        <v>6.012671244500001</v>
-      </c>
-      <c r="S8">
-        <v>0.1469181837139178</v>
-      </c>
-      <c r="T8">
-        <v>0.1295609217505024</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>8.750795</v>
-      </c>
-      <c r="H9">
-        <v>17.50159</v>
-      </c>
-      <c r="I9">
-        <v>0.2480223127622444</v>
-      </c>
-      <c r="J9">
-        <v>0.1890005537105138</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.5</v>
-      </c>
-      <c r="M9">
-        <v>0.0788065</v>
-      </c>
-      <c r="N9">
-        <v>0.157613</v>
-      </c>
-      <c r="O9">
-        <v>0.4076412638940496</v>
-      </c>
-      <c r="P9">
-        <v>0.3144944858259688</v>
-      </c>
-      <c r="Q9">
-        <v>0.6896195261675</v>
-      </c>
-      <c r="R9">
-        <v>2.75847810467</v>
-      </c>
-      <c r="S9">
-        <v>0.1011041290483266</v>
-      </c>
-      <c r="T9">
-        <v>0.05943963196001142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>6.279227333333332</v>
-      </c>
-      <c r="H10">
-        <v>18.837682</v>
-      </c>
-      <c r="I10">
-        <v>0.1779710855497396</v>
-      </c>
-      <c r="J10">
-        <v>0.2034290786507156</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.1145166666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.34355</v>
-      </c>
-      <c r="O10">
-        <v>0.5923587361059505</v>
-      </c>
-      <c r="P10">
-        <v>0.6855055141740312</v>
-      </c>
-      <c r="Q10">
-        <v>0.7190761834555555</v>
-      </c>
-      <c r="R10">
-        <v>6.4716856511</v>
-      </c>
-      <c r="S10">
-        <v>0.1054227272996477</v>
-      </c>
-      <c r="T10">
-        <v>0.1394517551584082</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>6.279227333333332</v>
-      </c>
-      <c r="H11">
-        <v>18.837682</v>
-      </c>
-      <c r="I11">
-        <v>0.1779710855497396</v>
-      </c>
-      <c r="J11">
-        <v>0.2034290786507156</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.5</v>
-      </c>
-      <c r="M11">
-        <v>0.0788065</v>
-      </c>
-      <c r="N11">
-        <v>0.157613</v>
-      </c>
-      <c r="O11">
-        <v>0.4076412638940496</v>
-      </c>
-      <c r="P11">
-        <v>0.3144944858259688</v>
-      </c>
-      <c r="Q11">
-        <v>0.4948439288443333</v>
-      </c>
-      <c r="R11">
-        <v>2.969063573066</v>
-      </c>
-      <c r="S11">
-        <v>0.07254835825009188</v>
-      </c>
-      <c r="T11">
-        <v>0.06397732349230738</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>8.495532000000001</v>
-      </c>
-      <c r="H12">
-        <v>25.486596</v>
-      </c>
-      <c r="I12">
-        <v>0.2407874364312792</v>
-      </c>
-      <c r="J12">
-        <v>0.275231036505607</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.1145166666666667</v>
-      </c>
-      <c r="N12">
-        <v>0.34355</v>
-      </c>
-      <c r="O12">
-        <v>0.5923587361059505</v>
-      </c>
-      <c r="P12">
-        <v>0.6855055141740312</v>
-      </c>
-      <c r="Q12">
-        <v>0.9728800062000001</v>
-      </c>
-      <c r="R12">
-        <v>8.755920055800001</v>
-      </c>
-      <c r="S12">
-        <v>0.1426325415146244</v>
-      </c>
-      <c r="T12">
-        <v>0.1886723931964276</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>8.495532000000001</v>
-      </c>
-      <c r="H13">
-        <v>25.486596</v>
-      </c>
-      <c r="I13">
-        <v>0.2407874364312792</v>
-      </c>
-      <c r="J13">
-        <v>0.275231036505607</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.5</v>
-      </c>
-      <c r="M13">
-        <v>0.0788065</v>
-      </c>
-      <c r="N13">
-        <v>0.157613</v>
-      </c>
-      <c r="O13">
-        <v>0.4076412638940496</v>
-      </c>
-      <c r="P13">
-        <v>0.3144944858259688</v>
-      </c>
-      <c r="Q13">
-        <v>0.669503142558</v>
-      </c>
-      <c r="R13">
-        <v>4.017018855348001</v>
-      </c>
-      <c r="S13">
-        <v>0.09815489491665477</v>
-      </c>
-      <c r="T13">
-        <v>0.08655864330917931</v>
+        <v>0.07590008909599709</v>
       </c>
     </row>
   </sheetData>
